--- a/data/transformed_data_2012.xlsx
+++ b/data/transformed_data_2012.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>595106.4824904694</v>
+        <v>602876.6672904693</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>68042.38</v>
+        <v>58516.4468</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12541.06</v>
+        <v>10785.3116</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5101,7 +5101,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>18788.93371038407</v>
+        <v>18558.16331038406</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5437,7 +5437,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>106.82</v>
+        <v>91.86519999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5605,7 +5605,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1755.18</v>
+        <v>1509.4548</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7830,7 +7830,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14123.52627766714</v>
+        <v>14964.01347766714</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8166,7 +8166,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>12545.96</v>
+        <v>10789.5256</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8334,7 +8334,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6542.48</v>
+        <v>5626.5328</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6182.143897581792</v>
+        <v>6209.172297581792</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2384.34</v>
+        <v>2050.5324</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11077,7 +11077,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2191.28</v>
+        <v>1884.5008</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13316,7 +13316,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16614.0361598862</v>
+        <v>16862.5053598862</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13652,7 +13652,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>11245.5</v>
+        <v>9671.129999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13820,7 +13820,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9470.719999999999</v>
+        <v>8144.819199999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16059,7 +16059,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10277.1816</v>
+        <v>10230.122</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16395,7 +16395,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>788.9</v>
+        <v>678.454</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16563,7 +16563,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1125.04</v>
+        <v>967.5344</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18802,7 +18802,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14253.89348904694</v>
+        <v>13814.85348904694</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19138,7 +19138,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8407.42</v>
+        <v>7230.3812</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19306,7 +19306,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11543.42</v>
+        <v>9927.341200000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21545,7 +21545,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6704.319709246087</v>
+        <v>7122.779709246087</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21881,7 +21881,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8439.76</v>
+        <v>7258.1936</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22049,7 +22049,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5450.76</v>
+        <v>4687.6536</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24288,7 +24288,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19353.76818321479</v>
+        <v>18391.31018321479</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24624,7 +24624,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5722.22</v>
+        <v>4921.1092</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24792,7 +24792,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12596.92</v>
+        <v>10833.3512</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27031,7 +27031,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14048.88387368421</v>
+        <v>13536.03027368421</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27367,7 +27367,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1596.42</v>
+        <v>1372.9212</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27535,7 +27535,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5259.66</v>
+        <v>4523.3076</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29760,7 +29760,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6324.995862873399</v>
+        <v>6655.0990628734</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30096,7 +30096,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8045.8</v>
+        <v>6919.387999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30264,7 +30264,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5687.92</v>
+        <v>4891.611199999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32503,7 +32503,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>67088.15820995733</v>
+        <v>67099.95740995732</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32839,7 +32839,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4598.16</v>
+        <v>3954.4176</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -33007,7 +33007,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4513.88</v>
+        <v>3881.9368</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35246,7 +35246,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8163.275178947367</v>
+        <v>8049.261978947367</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35582,7 +35582,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>132.3</v>
+        <v>113.778</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35750,7 +35750,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>946.6799999999999</v>
+        <v>814.1448</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37975,7 +37975,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11676.10564324324</v>
+        <v>11176.83484324324</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38311,7 +38311,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>190.12</v>
+        <v>163.5032</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38479,7 +38479,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3756.34</v>
+        <v>3230.4524</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40704,7 +40704,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4083.847189758179</v>
+        <v>4070.264389758179</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -41040,7 +41040,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3516.24</v>
+        <v>3023.9664</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41208,7 +41208,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3613.26</v>
+        <v>3107.4036</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43447,7 +43447,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2351.481478236131</v>
+        <v>2321.160278236131</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43783,7 +43783,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7126.559999999999</v>
+        <v>6128.8416</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43951,7 +43951,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7343.139999999999</v>
+        <v>6315.100399999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46190,7 +46190,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11167.81786742532</v>
+        <v>10661.54986742532</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46526,7 +46526,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5877.059999999999</v>
+        <v>5054.2716</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46694,7 +46694,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9493.26</v>
+        <v>8164.2036</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48933,7 +48933,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2888.109515789474</v>
+        <v>2973.036315789474</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49269,7 +49269,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6744.36</v>
+        <v>5800.1496</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49437,7 +49437,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6137.74</v>
+        <v>5278.4564</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51662,7 +51662,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11031.69776330014</v>
+        <v>10292.46416330014</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51998,7 +51998,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>818.3</v>
+        <v>703.7380000000001</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52166,7 +52166,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6098.54</v>
+        <v>5244.7444</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54391,7 +54391,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4377.412030725463</v>
+        <v>4291.936430725463</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54727,7 +54727,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1407.28</v>
+        <v>1210.2608</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54895,7 +54895,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2017.82</v>
+        <v>1735.3252</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57120,7 +57120,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8445.039370128023</v>
+        <v>8358.877770128021</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57456,7 +57456,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1772.82</v>
+        <v>1524.6252</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57624,7 +57624,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2388.26</v>
+        <v>2053.9036</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59863,7 +59863,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13051.68692290185</v>
+        <v>13178.59692290185</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60199,7 +60199,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4655.98</v>
+        <v>4004.1428</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60367,7 +60367,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3749.48</v>
+        <v>3224.5528</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62578,7 +62578,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>37612.06272944523</v>
+        <v>40344.81232944522</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62914,7 +62914,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>26432.56</v>
+        <v>22732.0016</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63082,7 +63082,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6912.92</v>
+        <v>5945.111199999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65321,7 +65321,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3267.667168136558</v>
+        <v>3217.314768136558</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65657,7 +65657,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2691.08</v>
+        <v>2314.3288</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65825,7 +65825,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3050.74</v>
+        <v>2623.6364</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68064,7 +68064,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>94977.93220711238</v>
+        <v>92743.76740711236</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68400,7 +68400,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>21572.74</v>
+        <v>18552.5564</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68568,7 +68568,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>37531.06</v>
+        <v>32276.7116</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70807,7 +70807,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>46240.3928517781</v>
+        <v>44924.78205177809</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71143,7 +71143,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1997.24</v>
+        <v>1717.6264</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71311,7 +71311,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11394.46</v>
+        <v>9799.2356</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73550,7 +73550,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>30798.00588221905</v>
+        <v>33396.02508221905</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73886,7 +73886,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>24847.9</v>
+        <v>21369.194</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -74054,7 +74054,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6290.62</v>
+        <v>5409.9332</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76293,7 +76293,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22041.9799197724</v>
+        <v>23260.1787197724</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76629,7 +76629,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>29507.8</v>
+        <v>25376.708</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76797,7 +76797,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>20806.38</v>
+        <v>17893.4868</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -79036,7 +79036,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>23561.48012403983</v>
+        <v>23745.19092403983</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79372,7 +79372,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5361.58</v>
+        <v>4610.958799999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79540,7 +79540,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4049.36</v>
+        <v>3482.4496</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81779,7 +81779,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>24609.17344978662</v>
+        <v>24343.00544978662</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82115,7 +82115,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2755.76</v>
+        <v>2369.9536</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82283,7 +82283,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4656.96</v>
+        <v>4004.9856</v>
       </c>
     </row>
     <row r="168" spans="1:4">
